--- a/data/layer2_output/layer2_all_results.xlsx
+++ b/data/layer2_output/layer2_all_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,10 +439,10 @@
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="24" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="36" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="21" customWidth="1" min="12" max="12"/>
     <col width="17" customWidth="1" min="13" max="13"/>
@@ -518,7 +518,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>conv_007</t>
+          <t>conv_004</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>R001, R004, R006</t>
+          <t>R001, R006</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>R001, R004, R006</t>
+          <t>R001, R006</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>conv_011</t>
+          <t>conv_007</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>R001, R006</t>
+          <t>R001, R004, R006</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -640,19 +640,19 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>conv_041</t>
+          <t>conv_011</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>R001, R004</t>
+          <t>R001, R004, R006</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -707,19 +707,19 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>conv_052</t>
+          <t>conv_012</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>R001, R002, R004</t>
+          <t>R001, R005, R006</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -759,12 +759,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>R001, R002, R004</t>
+          <t>R001, R005, R006</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -774,19 +774,19 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>conv_062</t>
+          <t>conv_016</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>95%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>R001, R005, R006</t>
+          <t>R001, R004, R006</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>R001, R005, R006</t>
+          <t>R001, R003, R004, R006</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -853,7 +853,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>conv_065</t>
+          <t>conv_017</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -883,24 +883,24 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>R001, R005, R006</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>R001, R004, R006</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>NON_COMPLIANT</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>R001, R003, R004</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -908,7 +908,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>conv_066</t>
+          <t>conv_026</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -945,12 +945,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>95%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>R001, R005</t>
+          <t>R001, R004, R006</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -960,12 +960,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>R001, R005, R006</t>
+          <t>R001, R003, R004, R006</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -987,7 +987,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>conv_070</t>
+          <t>conv_030</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>R001, R002, R004, R006</t>
+          <t>R001, R004, R006</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>R001, R002, R004, R006</t>
+          <t>R001, R003, R006</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>conv_083</t>
+          <t>conv_041</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>R001, R004, R005</t>
+          <t>R001, R004</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>R001, R004, R006</t>
+          <t>R001, R006</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1121,7 +1121,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>conv_087</t>
+          <t>conv_052</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>R001, R004, R006</t>
+          <t>R001, R002, R004</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>R001, R004, R006</t>
+          <t>R001, R002, R004</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1176,19 +1176,19 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>conv_089</t>
+          <t>conv_055</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>R001, R006</t>
+          <t>R001, R004, R006</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1228,12 +1228,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>R001, R006</t>
+          <t>R001, R004, R006</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1255,7 +1255,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>conv_096</t>
+          <t>conv_058</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>R001, R006</t>
+          <t>R001, R004</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1295,17 +1295,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>R001, R006</t>
+          <t>R001, R004, R006</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1315,14 +1315,14 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>conv_125</t>
+          <t>conv_062</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>R001, R004</t>
+          <t>R001, R005, R006</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>R001, R004, R006</t>
+          <t>R001, R005, R006</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1377,19 +1377,19 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>conv_146</t>
+          <t>conv_065</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>R001, R006</t>
+          <t>R001, R004, R006</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>R001, R003, R006</t>
+          <t>R001, R003, R004</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>conv_153</t>
+          <t>conv_066</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>R001, R004, R005, R006</t>
+          <t>R001, R005</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>R001, R004, R006</t>
+          <t>R001, R005, R006</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1523,7 +1523,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>conv_171</t>
+          <t>conv_070</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>R001, R004, R006</t>
+          <t>R001, R002, R004, R006</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>R001, R004, R006</t>
+          <t>R001, R002, R004, R006</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1578,19 +1578,19 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>conv_179</t>
+          <t>conv_077</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>R001, R003, R006</t>
+          <t>R001, R004</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1630,12 +1630,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>R001, R003, R006</t>
+          <t>R001, R006</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1645,19 +1645,19 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>conv_189</t>
+          <t>conv_083</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>R001, R006</t>
+          <t>R001, R004, R005</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1702,12 +1702,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>R001, R006</t>
+          <t>R001, R004, R006</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1717,74 +1717,1816 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>conv_086</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>R001, R004, R006</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>R001, R006</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>conv_087</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>R001, R004, R006</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>R001, R004, R006</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>conv_089</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>R001, R005</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>R001, R006</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>conv_093</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>R001, R005, R006</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>R001, R005, R006</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>conv_096</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>R001, R006</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>R001, R006</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>conv_097</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>R001, R004</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>R001, R004, R006</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>conv_102</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>R001, R002, R005</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>R001, R002, R005</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>conv_110</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>88%</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>R001, R003, R004, R006</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>R001, R003, R004, R006</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>conv_111</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>R001, R004, R006</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>R001, R003, R006</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>conv_117</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>R001, R004, R006</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>R001, R004, R006</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>conv_125</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>R001, R004</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>R001, R004, R006</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>conv_130</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>R001, R004, R006</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>R001, R004, R006</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>conv_135</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>R001, R004</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>R001, R004, R006</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>conv_143</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>R001, R004, R005, R006</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>R001, R004, R006</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>conv_144</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>R001, R005</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>R001, R005, R006</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>conv_146</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>R001, R006</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>R001, R003, R006</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>conv_148</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>R001, R002, R006</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>R001, R002, R006</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>conv_153</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>R001, R004, R005, R006</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>R001, R004, R006</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>conv_156</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>R001, R004</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>R001, R004, R006</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>conv_159</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>R001, R006</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>R001, R006</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>conv_160</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>R001, R004, R006</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>R001, R003, R006</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>conv_171</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>R001, R004, R006</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>R001, R004, R006</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>conv_179</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>R001, R004, R006</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>R001, R003, R006</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>conv_189</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>R001, R004, R006</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>R001, R006</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>conv_193</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>NON COMPLIANT</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>88%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NON_COMPLIANT</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
         <is>
           <t>90%</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>R001, R004</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>NON_COMPLIANT</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>R001, R003</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>conv_195</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>R001, R002, R004, R005, R006</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>R001, R002, R003, R004, R005, R006</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>conv_199</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>NON COMPLIANT</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>R001, R002, R006</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>NON_COMPLIANT</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>R001, R002, R006</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
     </row>
